--- a/Evaluation/eval003/sub0677/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub0677/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.8613861386138614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8866995073891626</v>
+        <v>0.8743718592964823</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.89</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8811881188118812</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8855721393034827</v>
+        <v>0.878048780487805</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8762376237623762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8762376237623762</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8762376237623762</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8762376237623762</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8861764705882353</v>
+        <v>0.8765698587127159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8762376237623762</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8861358233463226</v>
+        <v>0.8762103198921436</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8861764705882352</v>
+        <v>0.8765698587127159</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8762376237623762</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8861358233463226</v>
+        <v>0.8762103198921437</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
